--- a/database/test_data_tables/UserBanquetRegistration.xlsx
+++ b/database/test_data_tables/UserBanquetRegistration.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wtw/Downloads/未命名檔案夾4/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FF3758-FF61-F04C-9064-F4C702D2FAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4420" yWindow="760" windowWidth="25540" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="263">
   <si>
     <t>BID</t>
   </si>
@@ -43,24 +49,606 @@
     <t>seatingPreference2</t>
   </si>
   <si>
-    <t>anna.doe@example.com</t>
+    <t>jane.johnson@email.com</t>
+  </si>
+  <si>
+    <t>grace.doe@example.com</t>
+  </si>
+  <si>
+    <t>tom.doe@example.com</t>
+  </si>
+  <si>
+    <t>emily.smith@example.com</t>
+  </si>
+  <si>
+    <t>jane.brown@example.com</t>
+  </si>
+  <si>
+    <t>cpzyf.lhlxx@example.com</t>
+  </si>
+  <si>
+    <t>jhbay.czffa@example.com</t>
+  </si>
+  <si>
+    <t>sophia.clark@example.com</t>
+  </si>
+  <si>
+    <t>utezo.qqgfu@example.com</t>
+  </si>
+  <si>
+    <t>anna.patel@email.com</t>
+  </si>
+  <si>
+    <t>tyssh.ofxew@example.com</t>
+  </si>
+  <si>
+    <t>amit.chen@email.com</t>
+  </si>
+  <si>
+    <t>risxg.wfyfd@example.com</t>
   </si>
   <si>
     <t>john.johnson@testmail.com</t>
   </si>
   <si>
-    <t>tom.doe@example.com</t>
-  </si>
-  <si>
-    <t>jane.johnson@email.com</t>
-  </si>
-  <si>
-    <t>emily.smith@example.com</t>
+    <t>rzlxp.iwnao@example.com</t>
+  </si>
+  <si>
+    <t>uxpzg.mkpmc@example.com</t>
+  </si>
+  <si>
+    <t>li.johnson@email.com</t>
+  </si>
+  <si>
+    <t>li.chen@example.com</t>
+  </si>
+  <si>
+    <t>anna.anderson@testmail.com</t>
+  </si>
+  <si>
+    <t>john.brown@example.com</t>
+  </si>
+  <si>
+    <t>emily.smith@email.com</t>
+  </si>
+  <si>
+    <t>li.anderson@email.com</t>
+  </si>
+  <si>
+    <t>cxwkf.rodhu@example.com</t>
+  </si>
+  <si>
+    <t>natalie.smith@testmail.com</t>
+  </si>
+  <si>
+    <t>zeglk.owcgl@example.com</t>
+  </si>
+  <si>
+    <t>srriu.wzhbr@example.com</t>
+  </si>
+  <si>
+    <t>mark.brown@example.com</t>
+  </si>
+  <si>
+    <t>clowo.zenhk@example.com</t>
+  </si>
+  <si>
+    <t>natalie.johnson@testmail.com</t>
+  </si>
+  <si>
+    <t>sophia.doe@email.com</t>
+  </si>
+  <si>
+    <t>john.doe@testmail.com</t>
+  </si>
+  <si>
+    <t>tzewd.mabrc@example.com</t>
+  </si>
+  <si>
+    <t>neerd.adsfr@example.com</t>
+  </si>
+  <si>
+    <t>jaqwt.uyzak@example.com</t>
+  </si>
+  <si>
+    <t>amit.brown@email.com</t>
+  </si>
+  <si>
+    <t>natalie.taylor@testmail.com</t>
+  </si>
+  <si>
+    <t>john.lee@email.com</t>
+  </si>
+  <si>
+    <t>emily.johnson@email.com</t>
+  </si>
+  <si>
+    <t>nmqav.vooku@example.com</t>
+  </si>
+  <si>
+    <t>jane.williams@testmail.com</t>
+  </si>
+  <si>
+    <t>natalie.chen@email.com</t>
+  </si>
+  <si>
+    <t>lqmpz.akajk@example.com</t>
+  </si>
+  <si>
+    <t>cicaj.lzfgk@example.com</t>
+  </si>
+  <si>
+    <t>zmmrk.iskdu@example.com</t>
+  </si>
+  <si>
+    <t>john.johnson@email.com</t>
+  </si>
+  <si>
+    <t>mark.doe@testmail.com</t>
+  </si>
+  <si>
+    <t>chris.anderson@testmail.com</t>
+  </si>
+  <si>
+    <t>itzrk.ddadv@example.com</t>
+  </si>
+  <si>
+    <t>mark.lee@testmail.com</t>
+  </si>
+  <si>
+    <t>tdfyg.aunnb@example.com</t>
+  </si>
+  <si>
+    <t>ojgtd.ukopb@example.com</t>
+  </si>
+  <si>
+    <t>kqbmt.widbo@example.com</t>
+  </si>
+  <si>
+    <t>vhsmp.kkcos@example.com</t>
+  </si>
+  <si>
+    <t>john.patel@testmail.com</t>
+  </si>
+  <si>
+    <t>anna.lee@email.com</t>
+  </si>
+  <si>
+    <t>grace.chen@email.com</t>
+  </si>
+  <si>
+    <t>sophia.doe@example.com</t>
+  </si>
+  <si>
+    <t>grace.patel@example.com</t>
+  </si>
+  <si>
+    <t>jane.patel@testmail.com</t>
+  </si>
+  <si>
+    <t>tbidj.zapkz@example.com</t>
+  </si>
+  <si>
+    <t>anna.taylor@example.com</t>
+  </si>
+  <si>
+    <t>emily.doe@email.com</t>
+  </si>
+  <si>
+    <t>grace.anderson@email.com</t>
+  </si>
+  <si>
+    <t>emily.johnson@testmail.com</t>
+  </si>
+  <si>
+    <t>cmeri.ryhdr@example.com</t>
+  </si>
+  <si>
+    <t>li.doe@testmail.com</t>
+  </si>
+  <si>
+    <t>ggqpk.svyyp@example.com</t>
+  </si>
+  <si>
+    <t>mark.johnson@email.com</t>
+  </si>
+  <si>
+    <t>tom.doe@testmail.com</t>
+  </si>
+  <si>
+    <t>li.clark@example.com</t>
+  </si>
+  <si>
+    <t>chris.doe@email.com</t>
+  </si>
+  <si>
+    <t>grace.johnson@testmail.com</t>
+  </si>
+  <si>
+    <t>mark.brown@email.com</t>
+  </si>
+  <si>
+    <t>jbpvq.ogkno@example.com</t>
+  </si>
+  <si>
+    <t>ukuuv.escvs@example.com</t>
+  </si>
+  <si>
+    <t>pvjli.kyfpi@example.com</t>
+  </si>
+  <si>
+    <t>sxjwt.jhqpm@example.com</t>
+  </si>
+  <si>
+    <t>mark.williams@testmail.com</t>
+  </si>
+  <si>
+    <t>grace.anderson@testmail.com</t>
+  </si>
+  <si>
+    <t>john.williams@testmail.com</t>
+  </si>
+  <si>
+    <t>john.smith@email.com</t>
+  </si>
+  <si>
+    <t>john.williams@example.com</t>
+  </si>
+  <si>
+    <t>ucjtc.nduhc@example.com</t>
+  </si>
+  <si>
+    <t>emjti.jcehx@example.com</t>
+  </si>
+  <si>
+    <t>jane.lee@example.com</t>
+  </si>
+  <si>
+    <t>li.lee@example.com</t>
+  </si>
+  <si>
+    <t>gqizu.nspqt@example.com</t>
+  </si>
+  <si>
+    <t>ynglt.vmxyz@example.com</t>
+  </si>
+  <si>
+    <t>qhbtg.xokni@example.com</t>
+  </si>
+  <si>
+    <t>tom.patel@email.com</t>
+  </si>
+  <si>
+    <t>jane.lee@testmail.com</t>
+  </si>
+  <si>
+    <t>emily.brown@example.com</t>
+  </si>
+  <si>
+    <t>qffqm.wcrdz@example.com</t>
+  </si>
+  <si>
+    <t>tom.anderson@email.com</t>
+  </si>
+  <si>
+    <t>emily.williams@testmail.com</t>
+  </si>
+  <si>
+    <t>tom.brown@email.com</t>
+  </si>
+  <si>
+    <t>xylgl.sqraq@example.com</t>
+  </si>
+  <si>
+    <t>tom.patel@testmail.com</t>
+  </si>
+  <si>
+    <t>sjpme.wgoix@example.com</t>
+  </si>
+  <si>
+    <t>john.patel@email.com</t>
+  </si>
+  <si>
+    <t>john.chen@email.com</t>
+  </si>
+  <si>
+    <t>fljol.kzpvx@example.com</t>
+  </si>
+  <si>
+    <t>mark.lee@email.com</t>
+  </si>
+  <si>
+    <t>li.taylor@example.com</t>
+  </si>
+  <si>
+    <t>grace.smith@email.com</t>
+  </si>
+  <si>
+    <t>natalie.smith@email.com</t>
+  </si>
+  <si>
+    <t>mark.smith@testmail.com</t>
+  </si>
+  <si>
+    <t>grace.chen@testmail.com</t>
+  </si>
+  <si>
+    <t>jgddz.zpqzy@example.com</t>
+  </si>
+  <si>
+    <t>grace.johnson@email.com</t>
+  </si>
+  <si>
+    <t>amit.smith@example.com</t>
+  </si>
+  <si>
+    <t>chris.chen@email.com</t>
+  </si>
+  <si>
+    <t>anna.taylor@email.com</t>
+  </si>
+  <si>
+    <t>grace.smith@example.com</t>
+  </si>
+  <si>
+    <t>emily.doe@example.com</t>
+  </si>
+  <si>
+    <t>grace.patel@email.com</t>
+  </si>
+  <si>
+    <t>towpt.qarth@example.com</t>
+  </si>
+  <si>
+    <t>anna.clark@email.com</t>
+  </si>
+  <si>
+    <t>bxrpz.vgpar@example.com</t>
+  </si>
+  <si>
+    <t>wploz.yilpb@example.com</t>
+  </si>
+  <si>
+    <t>ihhzu.ikiku@example.com</t>
+  </si>
+  <si>
+    <t>amit.doe@testmail.com</t>
+  </si>
+  <si>
+    <t>zgxdl.spsbh@example.com</t>
+  </si>
+  <si>
+    <t>logkk.visap@example.com</t>
+  </si>
+  <si>
+    <t>pqeii.zbxsq@example.com</t>
+  </si>
+  <si>
+    <t>ovomw.awwtf@example.com</t>
+  </si>
+  <si>
+    <t>kezfr.pwqqq@example.com</t>
+  </si>
+  <si>
+    <t>peafk.uiwde@example.com</t>
+  </si>
+  <si>
+    <t>li.lee@testmail.com</t>
+  </si>
+  <si>
+    <t>anna.williams@example.com</t>
+  </si>
+  <si>
+    <t>dczaw.xahwj@example.com</t>
+  </si>
+  <si>
+    <t>rqsis.fiopn@example.com</t>
+  </si>
+  <si>
+    <t>anna.johnson@example.com</t>
+  </si>
+  <si>
+    <t>chris.smith@example.com</t>
+  </si>
+  <si>
+    <t>mark.brown@testmail.com</t>
+  </si>
+  <si>
+    <t>emily.anderson@email.com</t>
+  </si>
+  <si>
+    <t>jane.chen@testmail.com</t>
+  </si>
+  <si>
+    <t>jane.chen@email.com</t>
+  </si>
+  <si>
+    <t>siquo.jqrgv@example.com</t>
+  </si>
+  <si>
+    <t>li.williams@email.com</t>
+  </si>
+  <si>
+    <t>grace.williams@example.com</t>
+  </si>
+  <si>
+    <t>emily.patel@example.com</t>
+  </si>
+  <si>
+    <t>amit.clark@example.com</t>
+  </si>
+  <si>
+    <t>sophia.brown@testmail.com</t>
+  </si>
+  <si>
+    <t>natalie.doe@email.com</t>
+  </si>
+  <si>
+    <t>bjydj.cjmmx@example.com</t>
+  </si>
+  <si>
+    <t>dsdjj.unipa@example.com</t>
+  </si>
+  <si>
+    <t>jane.clark@email.com</t>
   </si>
   <si>
     <t>grace.doe@email.com</t>
   </si>
   <si>
+    <t>tmjjk.gblas@example.com</t>
+  </si>
+  <si>
+    <t>sophia.patel@email.com</t>
+  </si>
+  <si>
+    <t>li.patel@testmail.com</t>
+  </si>
+  <si>
+    <t>mark.clark@example.com</t>
+  </si>
+  <si>
+    <t>tom.taylor@example.com</t>
+  </si>
+  <si>
+    <t>tom.smith@example.com</t>
+  </si>
+  <si>
+    <t>jane.clark@testmail.com</t>
+  </si>
+  <si>
+    <t>anna.lee@example.com</t>
+  </si>
+  <si>
+    <t>maxmy.iwjar@example.com</t>
+  </si>
+  <si>
+    <t>tom.clark@testmail.com</t>
+  </si>
+  <si>
+    <t>epcxr.jzbth@example.com</t>
+  </si>
+  <si>
+    <t>amit.smith@email.com</t>
+  </si>
+  <si>
+    <t>anna.brown@email.com</t>
+  </si>
+  <si>
+    <t>uwwwb.qdffl@example.com</t>
+  </si>
+  <si>
+    <t>sophia.chen@email.com</t>
+  </si>
+  <si>
+    <t>sophia.anderson@testmail.com</t>
+  </si>
+  <si>
+    <t>anna.patel@example.com</t>
+  </si>
+  <si>
+    <t>fpmar.phczw@example.com</t>
+  </si>
+  <si>
+    <t>kpccf.wjnrc@example.com</t>
+  </si>
+  <si>
+    <t>tom.johnson@email.com</t>
+  </si>
+  <si>
+    <t>tom.doe@email.com</t>
+  </si>
+  <si>
+    <t>tom.chen@email.com</t>
+  </si>
+  <si>
+    <t>mark.taylor@example.com</t>
+  </si>
+  <si>
+    <t>emily.smith@testmail.com</t>
+  </si>
+  <si>
+    <t>ltwzo.gmeuu@example.com</t>
+  </si>
+  <si>
+    <t>mark.lee@example.com</t>
+  </si>
+  <si>
+    <t>irmpz.wfmni@example.com</t>
+  </si>
+  <si>
+    <t>okzjg.udcvr@example.com</t>
+  </si>
+  <si>
+    <t>ojxdb.vurqe@example.com</t>
+  </si>
+  <si>
+    <t>john.williams@email.com</t>
+  </si>
+  <si>
+    <t>jjkua.jedeq@example.com</t>
+  </si>
+  <si>
+    <t>mark.anderson@testmail.com</t>
+  </si>
+  <si>
+    <t>li.johnson@example.com</t>
+  </si>
+  <si>
+    <t>mark.williams@example.com</t>
+  </si>
+  <si>
+    <t>xfwmj.nueyf@example.com</t>
+  </si>
+  <si>
+    <t>qcpdl.hmqvc@example.com</t>
+  </si>
+  <si>
+    <t>amit.lee@example.com</t>
+  </si>
+  <si>
+    <t>anna.brown@example.com</t>
+  </si>
+  <si>
+    <t>cptdz.vdmoy@example.com</t>
+  </si>
+  <si>
+    <t>zabcp.xhyeg@example.com</t>
+  </si>
+  <si>
+    <t>dxxtr.umope@example.com</t>
+  </si>
+  <si>
+    <t>anna.williams@testmail.com</t>
+  </si>
+  <si>
+    <t>natalie.clark@email.com</t>
+  </si>
+  <si>
+    <t>fpfdp.ctjdx@example.com</t>
+  </si>
+  <si>
+    <t>li.williams@testmail.com</t>
+  </si>
+  <si>
+    <t>anna.lee@testmail.com</t>
+  </si>
+  <si>
+    <t>grace.chen@example.com</t>
+  </si>
+  <si>
+    <t>amit.chen@example.com</t>
+  </si>
+  <si>
+    <t>eojhu.wilfa@example.com</t>
+  </si>
+  <si>
+    <t>vsuwx.tkmnt@example.com</t>
+  </si>
+  <si>
+    <t>emily.patel@email.com</t>
+  </si>
+  <si>
     <t>Grilled Chicken</t>
   </si>
   <si>
@@ -221,23 +809,20 @@
   </si>
   <si>
     <t>None</t>
-  </si>
-  <si>
-    <t>jane.brown@example.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -245,8 +830,24 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -285,25 +886,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -341,7 +954,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -375,6 +988,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -409,9 +1023,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -584,14 +1199,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="30.59765625" customWidth="1"/>
+    <col min="3" max="3" width="26.19921875" customWidth="1"/>
+    <col min="4" max="4" width="7.796875" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="23.3984375" customWidth="1"/>
+    <col min="7" max="7" width="25.796875" customWidth="1"/>
+    <col min="8" max="8" width="29.796875" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,854 +1246,917 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>209</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G2" s="2">
-        <v>45617.53888888889</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>45617.538888888892</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>48</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G3" s="2">
-        <v>45619.85069444445</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>45619.850694444453</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G4" s="2">
-        <v>45620.78472222222</v>
-      </c>
-      <c r="H4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>45620.784722222219</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G5" s="2">
-        <v>45626.78958333333</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>45626.789583333331</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G6" s="2">
-        <v>45620.48055555556</v>
-      </c>
-      <c r="H6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>45620.480555555558</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>41</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G7" s="2">
-        <v>45626.74444444444</v>
-      </c>
-      <c r="H7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>45626.744444444441</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
+        <v>260</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45623.703472222223</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>260</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45616.718055555553</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="2">
-        <v>45623.70347222222</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="2">
-        <v>45616.71805555555</v>
-      </c>
-      <c r="H9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>217</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G10" s="2">
-        <v>45626.42708333334</v>
-      </c>
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>45626.427083333343</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G11" s="2">
-        <v>45624.49513888889</v>
-      </c>
-      <c r="I11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>45624.495138888888</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>219</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G12" s="2">
-        <v>45620.80416666667</v>
-      </c>
-      <c r="I12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>45620.804166666669</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G13" s="2">
         <v>45616.53125</v>
       </c>
-      <c r="H13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="H13" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
-        <v>12</v>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G14" s="2">
-        <v>45616.42847222222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>45616.428472222222</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
-        <v>12</v>
+      <c r="B15" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>222</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G15" s="2">
-        <v>45623.83055555556</v>
-      </c>
-      <c r="I15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>45623.830555555563</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>7</v>
       </c>
-      <c r="B16" t="s">
-        <v>11</v>
+      <c r="B16" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>223</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G16" s="2">
-        <v>45626.57430555556</v>
-      </c>
-      <c r="H16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" t="s">
-        <v>10</v>
+        <v>45626.574305555558</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
-        <v>14</v>
+      <c r="B17" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>224</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G17" s="2">
-        <v>45618.78055555555</v>
-      </c>
-      <c r="H17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" t="s">
-        <v>10</v>
+        <v>45618.780555555553</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
-        <v>14</v>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>225</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G18" s="2">
-        <v>45622.52638888889</v>
-      </c>
-      <c r="H18" t="s">
-        <v>69</v>
-      </c>
-      <c r="I18" t="s">
-        <v>10</v>
+        <v>45622.526388888888</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
         <v>29</v>
       </c>
-      <c r="B19" t="s">
-        <v>13</v>
+      <c r="B19" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G19" s="2">
-        <v>45623.57847222222</v>
-      </c>
-      <c r="I19" t="s">
-        <v>69</v>
+        <v>45623.578472222223</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
         <v>13</v>
       </c>
-      <c r="B20" t="s">
-        <v>10</v>
+      <c r="B20" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G20" s="2">
-        <v>45622.57361111111</v>
+        <v>45622.573611111111</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
         <v>10</v>
       </c>
-      <c r="B21" t="s">
-        <v>12</v>
+      <c r="B21" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G21" s="2">
-        <v>45620.47847222222</v>
-      </c>
-      <c r="H21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" t="s">
-        <v>69</v>
+        <v>45620.478472222218</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
         <v>27</v>
       </c>
-      <c r="B22" t="s">
-        <v>10</v>
+      <c r="B22" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>229</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G22" s="2">
-        <v>45622.67361111111</v>
+        <v>45622.673611111109</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
         <v>33</v>
       </c>
-      <c r="B23" t="s">
-        <v>9</v>
+      <c r="B23" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G23" s="2">
-        <v>45617.575</v>
-      </c>
-      <c r="H23" t="s">
-        <v>69</v>
-      </c>
-      <c r="I23" t="s">
-        <v>69</v>
+        <v>45617.574999999997</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
         <v>1</v>
       </c>
-      <c r="B24" t="s">
-        <v>11</v>
+      <c r="B24" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G24" s="2">
-        <v>45623.49652777778</v>
-      </c>
-      <c r="H24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" t="s">
-        <v>10</v>
+        <v>45623.496527777781</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
         <v>4</v>
       </c>
-      <c r="B25" t="s">
-        <v>12</v>
+      <c r="B25" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>232</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G25" s="2">
-        <v>45618.70694444444</v>
-      </c>
-      <c r="I25" t="s">
-        <v>69</v>
+        <v>45618.706944444442</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
         <v>15</v>
       </c>
-      <c r="B26" t="s">
-        <v>13</v>
+      <c r="B26" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>233</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G26" s="2">
-        <v>45622.82777777778</v>
-      </c>
-      <c r="H26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" t="s">
-        <v>69</v>
+        <v>45622.827777777777</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
         <v>39</v>
       </c>
-      <c r="B27" t="s">
-        <v>9</v>
+      <c r="B27" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G27" s="2">
         <v>45619.67083333333</v>
       </c>
-      <c r="H27" t="s">
-        <v>69</v>
-      </c>
-      <c r="I27" t="s">
-        <v>10</v>
+      <c r="H27" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
         <v>44</v>
       </c>
-      <c r="B28" t="s">
-        <v>10</v>
+      <c r="B28" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G28" s="2">
-        <v>45623.49930555555</v>
-      </c>
-      <c r="H28" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" t="s">
-        <v>69</v>
+        <v>45623.499305555553</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
         <v>11</v>
       </c>
-      <c r="B29" t="s">
-        <v>12</v>
+      <c r="B29" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>236</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G29" s="2">
         <v>45621.7</v>
       </c>
-      <c r="I29" t="s">
-        <v>10</v>
+      <c r="H29" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
         <v>9</v>
       </c>
-      <c r="B30" t="s">
-        <v>10</v>
+      <c r="B30" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>237</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G30" s="2">
-        <v>45616.41736111111</v>
-      </c>
-      <c r="I30" t="s">
-        <v>69</v>
+        <v>45616.417361111111</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
         <v>40</v>
       </c>
-      <c r="B31" t="s">
-        <v>13</v>
+      <c r="B31" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>238</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G31" s="2">
-        <v>45624.79166666666</v>
-      </c>
-      <c r="I31" t="s">
-        <v>69</v>
+        <v>45624.791666666657</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
         <v>27</v>
       </c>
-      <c r="B32" t="s">
-        <v>14</v>
+      <c r="B32" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G32" s="2">
         <v>45625.75277777778</v>
       </c>
-      <c r="H32" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" t="s">
-        <v>10</v>
+      <c r="H32" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
         <v>42</v>
       </c>
-      <c r="B33" t="s">
-        <v>9</v>
+      <c r="B33" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G33" s="2">
-        <v>45620.61597222222</v>
-      </c>
-      <c r="H33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" t="s">
-        <v>69</v>
+        <v>45620.615972222222</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
         <v>10</v>
       </c>
-      <c r="B34" t="s">
-        <v>11</v>
+      <c r="B34" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G34" s="2">
-        <v>45623.42777777778</v>
-      </c>
-      <c r="H34" t="s">
-        <v>69</v>
-      </c>
-      <c r="I34" t="s">
-        <v>10</v>
+        <v>45623.427777777782</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
         <v>13</v>
       </c>
-      <c r="B35" t="s">
-        <v>13</v>
+      <c r="B35" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>242</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G35" s="2">
         <v>45619.70416666667</v>
       </c>
-      <c r="H35" t="s">
-        <v>10</v>
+      <c r="H35" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
         <v>50</v>
       </c>
-      <c r="B36" t="s">
-        <v>12</v>
+      <c r="B36" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>243</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G36" s="2">
         <v>45618.65625</v>
       </c>
-      <c r="H36" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="H36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1474,1483 +2164,1585 @@
       <c r="A37">
         <v>29</v>
       </c>
-      <c r="B37" t="s">
-        <v>13</v>
+      <c r="B37" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>244</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G37" s="2">
-        <v>45624.68888888889</v>
-      </c>
-      <c r="I37" t="s">
-        <v>10</v>
+        <v>45624.688888888893</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
-        <v>10</v>
+      <c r="B38" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>245</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G38" s="2">
-        <v>45621.71180555555</v>
-      </c>
-      <c r="I38" t="s">
-        <v>10</v>
+        <v>45621.711805555547</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
         <v>45</v>
       </c>
-      <c r="B39" t="s">
-        <v>14</v>
+      <c r="B39" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>246</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G39" s="2">
         <v>45624.62777777778</v>
       </c>
-      <c r="H39" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" t="s">
-        <v>69</v>
+      <c r="H39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
         <v>1</v>
       </c>
-      <c r="B40" t="s">
-        <v>14</v>
+      <c r="B40" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>247</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G40" s="2">
         <v>45620.53125</v>
       </c>
-      <c r="H40" t="s">
-        <v>69</v>
-      </c>
-      <c r="I40" t="s">
-        <v>69</v>
+      <c r="H40" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
         <v>22</v>
       </c>
-      <c r="B41" t="s">
-        <v>13</v>
+      <c r="B41" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>248</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G41" s="2">
         <v>45620.48333333333</v>
       </c>
-      <c r="I41" t="s">
-        <v>69</v>
+      <c r="H41" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
         <v>6</v>
       </c>
-      <c r="B42" t="s">
-        <v>12</v>
+      <c r="B42" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>249</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G42" s="2">
-        <v>45619.56111111111</v>
-      </c>
-      <c r="I42" t="s">
-        <v>69</v>
+        <v>45619.561111111107</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43">
         <v>16</v>
       </c>
-      <c r="B43" t="s">
-        <v>14</v>
+      <c r="B43" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>250</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G43" s="2">
-        <v>45620.86944444444</v>
-      </c>
-      <c r="I43" t="s">
-        <v>10</v>
+        <v>45620.869444444441</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44">
         <v>22</v>
       </c>
-      <c r="B44" t="s">
-        <v>12</v>
+      <c r="B44" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>251</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G44" s="2">
-        <v>45618.59583333333</v>
+        <v>45618.595833333333</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45">
         <v>40</v>
       </c>
-      <c r="B45" t="s">
-        <v>10</v>
+      <c r="B45" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>252</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G45" s="2">
-        <v>45625.78194444445</v>
-      </c>
-      <c r="H45" t="s">
-        <v>69</v>
-      </c>
-      <c r="I45" t="s">
-        <v>10</v>
+        <v>45625.781944444447</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46">
         <v>11</v>
       </c>
-      <c r="B46" t="s">
-        <v>10</v>
+      <c r="B46" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>253</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G46" s="2">
-        <v>45618.79722222222</v>
+        <v>45618.797222222223</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47">
         <v>37</v>
       </c>
-      <c r="B47" t="s">
-        <v>12</v>
+      <c r="B47" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>254</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G47" s="2">
         <v>45623.53402777778</v>
       </c>
-      <c r="H47" t="s">
-        <v>69</v>
-      </c>
-      <c r="I47" t="s">
-        <v>69</v>
+      <c r="H47" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48">
         <v>49</v>
       </c>
-      <c r="B48" t="s">
-        <v>14</v>
+      <c r="B48" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G48" s="2">
-        <v>45622.62986111111</v>
-      </c>
-      <c r="I48" t="s">
-        <v>10</v>
+        <v>45622.629861111112</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49">
         <v>8</v>
       </c>
-      <c r="B49" t="s">
-        <v>13</v>
+      <c r="B49" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>256</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G49" s="2">
-        <v>45621.72291666667</v>
+        <v>45621.722916666673</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50">
         <v>42</v>
       </c>
-      <c r="B50" t="s">
-        <v>14</v>
+      <c r="B50" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>257</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G50" s="2">
-        <v>45620.82638888889</v>
-      </c>
-      <c r="I50" t="s">
-        <v>69</v>
+        <v>45620.826388888891</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51">
         <v>41</v>
       </c>
-      <c r="B51" t="s">
-        <v>13</v>
+      <c r="B51" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>258</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G51" s="2">
-        <v>45621.59513888889</v>
-      </c>
-      <c r="H51" t="s">
-        <v>69</v>
+        <v>45621.595138888893</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52">
         <v>43</v>
       </c>
-      <c r="B52" t="s">
-        <v>13</v>
+      <c r="B52" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>209</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G52" s="2">
-        <v>45620.81875</v>
-      </c>
-      <c r="I52" t="s">
-        <v>69</v>
+        <v>45620.818749999999</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53">
         <v>24</v>
       </c>
-      <c r="B53" t="s">
-        <v>13</v>
+      <c r="B53" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G53" s="2">
-        <v>45617.53055555555</v>
-      </c>
-      <c r="I53" t="s">
-        <v>10</v>
+        <v>45617.530555555553</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54">
         <v>6</v>
       </c>
-      <c r="B54" t="s">
-        <v>11</v>
+      <c r="B54" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G54" s="2">
-        <v>45622.83402777778</v>
+        <v>45622.834027777782</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55">
         <v>27</v>
       </c>
-      <c r="B55" t="s">
-        <v>11</v>
+      <c r="B55" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G55" s="2">
-        <v>45616.46666666667</v>
-      </c>
-      <c r="H55" t="s">
-        <v>69</v>
-      </c>
-      <c r="I55" t="s">
-        <v>69</v>
+        <v>45616.466666666667</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56">
         <v>12</v>
       </c>
-      <c r="B56" t="s">
-        <v>10</v>
+      <c r="B56" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G56" s="2">
-        <v>45618.55555555555</v>
-      </c>
-      <c r="H56" t="s">
-        <v>69</v>
-      </c>
-      <c r="I56" t="s">
-        <v>69</v>
+        <v>45618.555555555547</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57">
         <v>24</v>
       </c>
-      <c r="B57" t="s">
-        <v>13</v>
+      <c r="B57" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G57" s="2">
         <v>45616.46875</v>
       </c>
-      <c r="H57" t="s">
-        <v>69</v>
-      </c>
-      <c r="I57" t="s">
-        <v>69</v>
+      <c r="H57" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58">
         <v>21</v>
       </c>
-      <c r="B58" t="s">
-        <v>14</v>
+      <c r="B58" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G58" s="2">
-        <v>45623.49097222222</v>
-      </c>
-      <c r="H58" t="s">
-        <v>69</v>
+        <v>45623.490972222222</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59">
         <v>29</v>
       </c>
-      <c r="B59" t="s">
-        <v>14</v>
+      <c r="B59" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G59" s="2">
-        <v>45619.48055555556</v>
-      </c>
-      <c r="H59" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59" t="s">
-        <v>10</v>
+        <v>45619.480555555558</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60">
         <v>33</v>
       </c>
-      <c r="B60" t="s">
-        <v>9</v>
+      <c r="B60" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>23</v>
+        <v>217</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G60" s="2">
-        <v>45626.8625</v>
-      </c>
-      <c r="H60" t="s">
-        <v>69</v>
-      </c>
-      <c r="I60" t="s">
-        <v>69</v>
+        <v>45626.862500000003</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61">
         <v>23</v>
       </c>
-      <c r="B61" t="s">
-        <v>10</v>
+      <c r="B61" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G61" s="2">
-        <v>45620.62083333333</v>
-      </c>
-      <c r="H61" t="s">
-        <v>69</v>
-      </c>
-      <c r="I61" t="s">
-        <v>10</v>
+        <v>45620.620833333327</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62">
         <v>45</v>
       </c>
-      <c r="B62" t="s">
-        <v>10</v>
+      <c r="B62" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>25</v>
+        <v>219</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G62" s="2">
-        <v>45617.57430555556</v>
-      </c>
-      <c r="H62" t="s">
-        <v>69</v>
+        <v>45617.574305555558</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63">
         <v>2</v>
       </c>
-      <c r="B63" t="s">
-        <v>11</v>
+      <c r="B63" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G63" s="2">
-        <v>45617.79236111111</v>
-      </c>
-      <c r="H63" t="s">
-        <v>10</v>
+        <v>45617.792361111111</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64">
         <v>27</v>
       </c>
-      <c r="B64" t="s">
-        <v>9</v>
+      <c r="B64" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G64" s="2">
-        <v>45617.66180555556</v>
-      </c>
-      <c r="H64" t="s">
-        <v>69</v>
-      </c>
-      <c r="I64" t="s">
-        <v>10</v>
+        <v>45617.661805555559</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65">
         <v>44</v>
       </c>
-      <c r="B65" t="s">
-        <v>9</v>
+      <c r="B65" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>222</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G65" s="2">
-        <v>45626.63263888889</v>
-      </c>
-      <c r="H65" t="s">
-        <v>69</v>
+        <v>45626.632638888892</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66">
         <v>30</v>
       </c>
-      <c r="B66" t="s">
-        <v>10</v>
+      <c r="B66" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>223</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G66" s="2">
-        <v>45617.50208333333</v>
-      </c>
-      <c r="H66" t="s">
-        <v>69</v>
-      </c>
-      <c r="I66" t="s">
-        <v>10</v>
+        <v>45617.502083333333</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67">
         <v>47</v>
       </c>
-      <c r="B67" t="s">
-        <v>14</v>
+      <c r="B67" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>224</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G67" s="2">
-        <v>45626.7375</v>
-      </c>
-      <c r="H67" t="s">
-        <v>10</v>
+        <v>45626.737500000003</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68">
         <v>4</v>
       </c>
-      <c r="B68" t="s">
-        <v>13</v>
+      <c r="B68" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>225</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G68" s="2">
         <v>45619.59097222222</v>
       </c>
-      <c r="H68" t="s">
-        <v>10</v>
-      </c>
-      <c r="I68" t="s">
-        <v>10</v>
+      <c r="H68" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69">
         <v>40</v>
       </c>
-      <c r="B69" t="s">
-        <v>9</v>
+      <c r="B69" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G69" s="2">
-        <v>45621.44722222222</v>
-      </c>
-      <c r="H69" t="s">
-        <v>10</v>
-      </c>
-      <c r="I69" t="s">
-        <v>69</v>
+        <v>45621.447222222218</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70">
         <v>24</v>
       </c>
-      <c r="B70" t="s">
-        <v>13</v>
+      <c r="B70" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G70" s="2">
-        <v>45621.73680555556</v>
-      </c>
-      <c r="H70" t="s">
-        <v>69</v>
-      </c>
-      <c r="I70" t="s">
-        <v>10</v>
+        <v>45621.736805555563</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71">
         <v>20</v>
       </c>
-      <c r="B71" t="s">
-        <v>12</v>
+      <c r="B71" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G71" s="2">
         <v>45617.74722222222</v>
       </c>
-      <c r="H71" t="s">
-        <v>69</v>
+      <c r="H71" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72">
         <v>50</v>
       </c>
-      <c r="B72" t="s">
-        <v>10</v>
+      <c r="B72" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>35</v>
+        <v>229</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G72" s="2">
         <v>45624.6</v>
       </c>
-      <c r="H72" t="s">
-        <v>69</v>
-      </c>
-      <c r="I72" t="s">
-        <v>10</v>
+      <c r="H72" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73">
         <v>47</v>
       </c>
-      <c r="B73" t="s">
-        <v>11</v>
+      <c r="B73" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G73" s="2">
-        <v>45617.59722222222</v>
-      </c>
-      <c r="H73" t="s">
-        <v>69</v>
+        <v>45617.597222222219</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74">
         <v>42</v>
       </c>
-      <c r="B74" t="s">
-        <v>9</v>
+      <c r="B74" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G74" s="2">
-        <v>45618.44375</v>
-      </c>
-      <c r="H74" t="s">
-        <v>69</v>
-      </c>
-      <c r="I74" t="s">
-        <v>69</v>
+        <v>45618.443749999999</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75">
         <v>11</v>
       </c>
-      <c r="B75" t="s">
-        <v>14</v>
+      <c r="B75" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>38</v>
+        <v>232</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G75" s="2">
-        <v>45619.86805555555</v>
-      </c>
-      <c r="H75" t="s">
-        <v>69</v>
+        <v>45619.868055555547</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76">
         <v>33</v>
       </c>
-      <c r="B76" t="s">
-        <v>13</v>
+      <c r="B76" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>39</v>
+        <v>233</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G76" s="2">
-        <v>45620.55486111111</v>
-      </c>
-      <c r="H76" t="s">
-        <v>10</v>
-      </c>
-      <c r="I76" t="s">
-        <v>69</v>
+        <v>45620.554861111108</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77">
         <v>9</v>
       </c>
-      <c r="B77" t="s">
-        <v>10</v>
+      <c r="B77" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G77" s="2">
-        <v>45624.42013888889</v>
-      </c>
-      <c r="I77" t="s">
-        <v>69</v>
+        <v>45624.420138888891</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78">
         <v>26</v>
       </c>
-      <c r="B78" t="s">
-        <v>12</v>
+      <c r="B78" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G78" s="2">
-        <v>45619.75833333333</v>
-      </c>
-      <c r="I78" t="s">
-        <v>10</v>
+        <v>45619.758333333331</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79">
         <v>36</v>
       </c>
-      <c r="B79" t="s">
-        <v>10</v>
+      <c r="B79" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>42</v>
+        <v>236</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G79" s="2">
-        <v>45621.49652777778</v>
-      </c>
-      <c r="I79" t="s">
-        <v>69</v>
+        <v>45621.496527777781</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80">
         <v>6</v>
       </c>
-      <c r="B80" t="s">
-        <v>14</v>
+      <c r="B80" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>43</v>
+        <v>237</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G80" s="2">
-        <v>45626.60069444445</v>
-      </c>
-      <c r="H80" t="s">
-        <v>69</v>
+        <v>45626.600694444453</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81">
         <v>9</v>
       </c>
-      <c r="B81" t="s">
-        <v>11</v>
+      <c r="B81" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>44</v>
+        <v>238</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G81" s="2">
-        <v>45616.50138888889</v>
-      </c>
-      <c r="H81" t="s">
-        <v>69</v>
-      </c>
-      <c r="I81" t="s">
-        <v>69</v>
+        <v>45616.501388888893</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82">
         <v>18</v>
       </c>
-      <c r="B82" t="s">
-        <v>12</v>
+      <c r="B82" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G82" s="2">
         <v>45626.6</v>
       </c>
-      <c r="H82" t="s">
-        <v>10</v>
-      </c>
-      <c r="I82" t="s">
-        <v>69</v>
+      <c r="H82" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83">
         <v>2</v>
       </c>
-      <c r="B83" t="s">
-        <v>14</v>
+      <c r="B83" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G83" s="2">
         <v>45626.65</v>
       </c>
-      <c r="H83" t="s">
-        <v>10</v>
-      </c>
-      <c r="I83" t="s">
-        <v>10</v>
+      <c r="H83" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84">
         <v>45</v>
       </c>
-      <c r="B84" t="s">
-        <v>13</v>
+      <c r="B84" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G84" s="2">
-        <v>45622.62986111111</v>
-      </c>
-      <c r="I84" t="s">
-        <v>69</v>
+        <v>45622.629861111112</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
         <v>25</v>
       </c>
-      <c r="B85" t="s">
-        <v>13</v>
+      <c r="B85" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>48</v>
+        <v>242</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G85" s="2">
-        <v>45625.75069444445</v>
-      </c>
-      <c r="H85" t="s">
-        <v>10</v>
-      </c>
-      <c r="I85" t="s">
-        <v>10</v>
+        <v>45625.750694444447</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86">
         <v>43</v>
       </c>
-      <c r="B86" t="s">
-        <v>13</v>
+      <c r="B86" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>49</v>
+        <v>243</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G86" s="2">
-        <v>45626.78472222222</v>
-      </c>
-      <c r="H86" t="s">
-        <v>69</v>
-      </c>
-      <c r="I86" t="s">
-        <v>10</v>
+        <v>45626.784722222219</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
         <v>23</v>
       </c>
-      <c r="B87" t="s">
-        <v>10</v>
+      <c r="B87" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>50</v>
+        <v>244</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G87" s="2">
-        <v>45624.85277777778</v>
-      </c>
-      <c r="I87" t="s">
-        <v>69</v>
+        <v>45624.852777777778</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88">
         <v>32</v>
       </c>
-      <c r="B88" t="s">
-        <v>13</v>
+      <c r="B88" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>51</v>
+        <v>245</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G88" s="2">
         <v>45620.45416666667</v>
       </c>
-      <c r="H88" t="s">
-        <v>10</v>
+      <c r="H88" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89">
         <v>26</v>
       </c>
-      <c r="B89" t="s">
-        <v>12</v>
+      <c r="B89" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>52</v>
+        <v>246</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G89" s="2">
-        <v>45622.82361111111</v>
-      </c>
-      <c r="H89" t="s">
-        <v>10</v>
-      </c>
-      <c r="I89" t="s">
-        <v>69</v>
+        <v>45622.823611111111</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90">
         <v>30</v>
       </c>
-      <c r="B90" t="s">
-        <v>14</v>
+      <c r="B90" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>53</v>
+        <v>247</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G90" s="2">
-        <v>45624.80416666667</v>
-      </c>
-      <c r="H90" t="s">
-        <v>69</v>
-      </c>
-      <c r="I90" t="s">
-        <v>69</v>
+        <v>45624.804166666669</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91">
         <v>34</v>
       </c>
-      <c r="B91" t="s">
-        <v>13</v>
+      <c r="B91" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>54</v>
+        <v>248</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G91" s="2">
-        <v>45624.52291666667</v>
-      </c>
-      <c r="H91" t="s">
-        <v>10</v>
-      </c>
-      <c r="I91" t="s">
-        <v>10</v>
+        <v>45624.522916666669</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92">
         <v>21</v>
       </c>
-      <c r="B92" t="s">
-        <v>13</v>
+      <c r="B92" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="C92" t="s">
-        <v>55</v>
+        <v>249</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G92" s="2">
-        <v>45625.74444444444</v>
-      </c>
-      <c r="H92" t="s">
-        <v>69</v>
-      </c>
-      <c r="I92" t="s">
-        <v>10</v>
+        <v>45625.744444444441</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93">
         <v>35</v>
       </c>
-      <c r="B93" t="s">
-        <v>9</v>
+      <c r="B93" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>56</v>
+        <v>250</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G93" s="2">
-        <v>45624.51041666666</v>
-      </c>
-      <c r="H93" t="s">
-        <v>10</v>
-      </c>
-      <c r="I93" t="s">
-        <v>69</v>
+        <v>45624.510416666657</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94">
         <v>3</v>
       </c>
-      <c r="B94" t="s">
-        <v>12</v>
+      <c r="B94" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>57</v>
+        <v>251</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="F94" t="s">
+        <v>262</v>
+      </c>
+      <c r="G94" s="2">
+        <v>45617.531944444447</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I94" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="G94" s="2">
-        <v>45617.53194444445</v>
-      </c>
-      <c r="I94" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95">
         <v>35</v>
       </c>
-      <c r="B95" t="s">
-        <v>11</v>
+      <c r="B95" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="C95" t="s">
-        <v>58</v>
+        <v>252</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G95" s="2">
-        <v>45620.52013888889</v>
-      </c>
-      <c r="H95" t="s">
-        <v>10</v>
-      </c>
-      <c r="I95" t="s">
-        <v>10</v>
+        <v>45620.520138888889</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96">
         <v>44</v>
       </c>
-      <c r="B96" t="s">
-        <v>14</v>
+      <c r="B96" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C96" t="s">
-        <v>59</v>
+        <v>253</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G96" s="2">
-        <v>45620.59305555555</v>
-      </c>
-      <c r="H96" t="s">
-        <v>10</v>
-      </c>
-      <c r="I96" t="s">
-        <v>10</v>
+        <v>45620.593055555553</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97">
         <v>46</v>
       </c>
-      <c r="B97" t="s">
-        <v>14</v>
+      <c r="B97" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="C97" t="s">
-        <v>60</v>
+        <v>254</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G97" s="2">
-        <v>45623.64513888889</v>
-      </c>
-      <c r="H97" t="s">
-        <v>10</v>
-      </c>
-      <c r="I97" t="s">
+        <v>45623.645138888889</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I97" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2958,2488 +3750,2708 @@
       <c r="A98">
         <v>14</v>
       </c>
-      <c r="B98" t="s">
-        <v>10</v>
+      <c r="B98" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C98" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G98" s="2">
-        <v>45625.62291666667</v>
-      </c>
-      <c r="H98" t="s">
-        <v>10</v>
-      </c>
-      <c r="I98" t="s">
-        <v>10</v>
+        <v>45625.622916666667</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99">
         <v>15</v>
       </c>
-      <c r="B99" t="s">
-        <v>10</v>
+      <c r="B99" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="C99" t="s">
-        <v>62</v>
+        <v>256</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G99" s="2">
-        <v>45617.79861111111</v>
-      </c>
-      <c r="H99" t="s">
-        <v>10</v>
+        <v>45617.798611111109</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100">
         <v>39</v>
       </c>
-      <c r="B100" t="s">
-        <v>10</v>
+      <c r="B100" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C100" t="s">
-        <v>63</v>
+        <v>257</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G100" s="2">
-        <v>45620.47986111111</v>
-      </c>
-      <c r="H100" t="s">
-        <v>10</v>
+        <v>45620.479861111111</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101">
         <v>34</v>
       </c>
-      <c r="B101" t="s">
-        <v>9</v>
+      <c r="B101" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="C101" t="s">
-        <v>64</v>
+        <v>258</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G101" s="2">
-        <v>45618.47708333333</v>
-      </c>
-      <c r="I101" t="s">
-        <v>10</v>
+        <v>45618.477083333331</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102">
         <v>25</v>
       </c>
-      <c r="B102" t="s">
-        <v>12</v>
+      <c r="B102" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>209</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G102" s="2">
-        <v>45619.70902777778</v>
-      </c>
-      <c r="H102" t="s">
-        <v>10</v>
+        <v>45619.709027777782</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103">
         <v>7</v>
       </c>
-      <c r="B103" t="s">
-        <v>10</v>
+      <c r="B103" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="C103" t="s">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="D103">
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G103" s="2">
-        <v>45625.78263888889</v>
-      </c>
-      <c r="H103" t="s">
-        <v>69</v>
-      </c>
-      <c r="I103" t="s">
-        <v>10</v>
+        <v>45625.782638888893</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104">
         <v>20</v>
       </c>
-      <c r="B104" t="s">
-        <v>9</v>
+      <c r="B104" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="F104" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G104" s="2">
-        <v>45618.67430555556</v>
-      </c>
-      <c r="H104" t="s">
-        <v>69</v>
-      </c>
-      <c r="I104" t="s">
-        <v>69</v>
+        <v>45618.674305555563</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105">
         <v>45</v>
       </c>
-      <c r="B105" t="s">
-        <v>13</v>
+      <c r="B105" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="C105" t="s">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="D105">
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G105" s="2">
-        <v>45622.54027777778</v>
+        <v>45622.540277777778</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106">
         <v>16</v>
       </c>
-      <c r="B106" t="s">
-        <v>14</v>
+      <c r="B106" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="C106" t="s">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G106" s="2">
-        <v>45626.43194444444</v>
+        <v>45626.431944444441</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107">
         <v>19</v>
       </c>
-      <c r="B107" t="s">
-        <v>9</v>
+      <c r="B107" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G107" s="2">
-        <v>45618.575</v>
-      </c>
-      <c r="H107" t="s">
-        <v>69</v>
-      </c>
-      <c r="I107" t="s">
-        <v>10</v>
+        <v>45618.574999999997</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108">
         <v>49</v>
       </c>
-      <c r="B108" t="s">
-        <v>11</v>
+      <c r="B108" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="C108" t="s">
+        <v>215</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="F108" t="s">
+        <v>261</v>
+      </c>
+      <c r="G108" s="2">
+        <v>45621.527083333327</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I108" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="F108" t="s">
-        <v>67</v>
-      </c>
-      <c r="G108" s="2">
-        <v>45621.52708333333</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109">
         <v>26</v>
       </c>
-      <c r="B109" t="s">
-        <v>14</v>
+      <c r="B109" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="C109" t="s">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="D109">
         <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G109" s="2">
-        <v>45622.76319444444</v>
-      </c>
-      <c r="I109" t="s">
-        <v>69</v>
+        <v>45622.763194444437</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110">
         <v>1</v>
       </c>
-      <c r="B110" t="s">
-        <v>12</v>
+      <c r="B110" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="C110" t="s">
-        <v>23</v>
+        <v>217</v>
       </c>
       <c r="D110">
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G110" s="2">
-        <v>45619.69097222222</v>
-      </c>
-      <c r="H110" t="s">
-        <v>10</v>
+        <v>45619.690972222219</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111">
         <v>40</v>
       </c>
-      <c r="B111" t="s">
-        <v>11</v>
+      <c r="B111" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="C111" t="s">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="F111" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G111" s="2">
-        <v>45622.82847222222</v>
-      </c>
-      <c r="I111" t="s">
-        <v>10</v>
+        <v>45622.828472222223</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112">
         <v>10</v>
       </c>
-      <c r="B112" t="s">
-        <v>14</v>
+      <c r="B112" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C112" t="s">
-        <v>25</v>
+        <v>219</v>
       </c>
       <c r="D112">
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G112" s="2">
-        <v>45616.57222222222</v>
-      </c>
-      <c r="H112" t="s">
-        <v>10</v>
-      </c>
-      <c r="I112" t="s">
-        <v>10</v>
+        <v>45616.572222222218</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113">
         <v>47</v>
       </c>
-      <c r="B113" t="s">
-        <v>12</v>
+      <c r="B113" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="C113" t="s">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="D113">
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G113" s="2">
-        <v>45624.46944444445</v>
+        <v>45624.469444444447</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114">
         <v>46</v>
       </c>
-      <c r="B114" t="s">
-        <v>13</v>
+      <c r="B114" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="D114">
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G114" s="2">
-        <v>45625.81388888889</v>
+        <v>45625.813888888893</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115">
         <v>9</v>
       </c>
-      <c r="B115" t="s">
-        <v>9</v>
+      <c r="B115" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>222</v>
       </c>
       <c r="D115">
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G115" s="2">
-        <v>45623.50138888889</v>
-      </c>
-      <c r="H115" t="s">
-        <v>10</v>
-      </c>
-      <c r="I115" t="s">
-        <v>69</v>
+        <v>45623.501388888893</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116">
         <v>15</v>
       </c>
-      <c r="B116" t="s">
-        <v>9</v>
+      <c r="B116" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>223</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="F116" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G116" s="2">
-        <v>45616.75902777778</v>
-      </c>
-      <c r="H116" t="s">
-        <v>10</v>
-      </c>
-      <c r="I116" t="s">
-        <v>10</v>
+        <v>45616.759027777778</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117">
         <v>42</v>
       </c>
-      <c r="B117" t="s">
-        <v>14</v>
+      <c r="B117" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="C117" t="s">
-        <v>30</v>
+        <v>224</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="F117" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G117" s="2">
-        <v>45618.62361111111</v>
-      </c>
-      <c r="H117" t="s">
-        <v>10</v>
-      </c>
-      <c r="I117" t="s">
-        <v>69</v>
+        <v>45618.623611111107</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118">
         <v>48</v>
       </c>
-      <c r="B118" t="s">
-        <v>12</v>
+      <c r="B118" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="C118" t="s">
-        <v>31</v>
+        <v>225</v>
       </c>
       <c r="D118">
         <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G118" s="2">
-        <v>45621.61388888889</v>
-      </c>
-      <c r="I118" t="s">
-        <v>69</v>
+        <v>45621.613888888889</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119">
         <v>2</v>
       </c>
-      <c r="B119" t="s">
-        <v>12</v>
+      <c r="B119" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="F119" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G119" s="2">
-        <v>45616.56180555555</v>
-      </c>
-      <c r="H119" t="s">
-        <v>69</v>
-      </c>
-      <c r="I119" t="s">
-        <v>69</v>
+        <v>45616.561805555553</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120">
         <v>21</v>
       </c>
-      <c r="B120" t="s">
-        <v>9</v>
+      <c r="B120" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="D120">
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G120" s="2">
-        <v>45622.51388888889</v>
-      </c>
-      <c r="H120" t="s">
-        <v>69</v>
+        <v>45622.513888888891</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121">
         <v>34</v>
       </c>
-      <c r="B121" t="s">
-        <v>13</v>
+      <c r="B121" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C121" t="s">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="F121" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G121" s="2">
-        <v>45618.62430555555</v>
-      </c>
-      <c r="H121" t="s">
-        <v>69</v>
+        <v>45618.624305555553</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122">
         <v>23</v>
       </c>
-      <c r="B122" t="s">
-        <v>12</v>
+      <c r="B122" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="C122" t="s">
-        <v>35</v>
+        <v>229</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G122" s="2">
-        <v>45616.48125</v>
-      </c>
-      <c r="I122" t="s">
-        <v>10</v>
+        <v>45616.481249999997</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123">
         <v>50</v>
       </c>
-      <c r="B123" t="s">
-        <v>13</v>
+      <c r="B123" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="C123" t="s">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G123" s="2">
-        <v>45620.48819444444</v>
-      </c>
-      <c r="I123" t="s">
-        <v>69</v>
+        <v>45620.488194444442</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124">
         <v>12</v>
       </c>
-      <c r="B124" t="s">
-        <v>12</v>
+      <c r="B124" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="C124" t="s">
+        <v>231</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="F124" t="s">
+        <v>262</v>
+      </c>
+      <c r="G124" s="2">
+        <v>45618.645833333343</v>
+      </c>
+      <c r="H124" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D124">
-        <v>1</v>
-      </c>
-      <c r="F124" t="s">
-        <v>68</v>
-      </c>
-      <c r="G124" s="2">
-        <v>45618.64583333334</v>
-      </c>
-      <c r="H124" t="s">
-        <v>10</v>
+      <c r="I124" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125">
         <v>28</v>
       </c>
-      <c r="B125" t="s">
-        <v>9</v>
+      <c r="B125" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="C125" t="s">
-        <v>38</v>
+        <v>232</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="F125" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G125" s="2">
-        <v>45616.66597222222</v>
-      </c>
-      <c r="I125" t="s">
-        <v>69</v>
+        <v>45616.665972222218</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126">
         <v>28</v>
       </c>
-      <c r="B126" t="s">
-        <v>14</v>
+      <c r="B126" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="C126" t="s">
-        <v>39</v>
+        <v>233</v>
       </c>
       <c r="D126">
         <v>0</v>
       </c>
       <c r="F126" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G126" s="2">
-        <v>45622.74027777778</v>
-      </c>
-      <c r="H126" t="s">
-        <v>10</v>
+        <v>45622.740277777782</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127">
         <v>37</v>
       </c>
-      <c r="B127" t="s">
-        <v>12</v>
+      <c r="B127" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="C127" t="s">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="D127">
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G127" s="2">
-        <v>45624.61805555555</v>
-      </c>
-      <c r="H127" t="s">
-        <v>69</v>
-      </c>
-      <c r="I127" t="s">
-        <v>69</v>
+        <v>45624.618055555547</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128">
         <v>12</v>
       </c>
-      <c r="B128" t="s">
-        <v>12</v>
+      <c r="B128" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="C128" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="D128">
         <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G128" s="2">
-        <v>45626.66875</v>
-      </c>
-      <c r="H128" t="s">
-        <v>69</v>
-      </c>
-      <c r="I128" t="s">
-        <v>69</v>
+        <v>45626.668749999997</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129">
         <v>32</v>
       </c>
-      <c r="B129" t="s">
-        <v>10</v>
+      <c r="B129" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="C129" t="s">
-        <v>42</v>
+        <v>236</v>
       </c>
       <c r="D129">
         <v>0</v>
       </c>
       <c r="F129" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G129" s="2">
-        <v>45623.75833333333</v>
+        <v>45623.758333333331</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130">
         <v>22</v>
       </c>
-      <c r="B130" t="s">
-        <v>12</v>
+      <c r="B130" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="C130" t="s">
-        <v>43</v>
+        <v>237</v>
       </c>
       <c r="D130">
         <v>0</v>
       </c>
       <c r="F130" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G130" s="2">
-        <v>45616.69444444445</v>
-      </c>
-      <c r="H130" t="s">
-        <v>10</v>
-      </c>
-      <c r="I130" t="s">
-        <v>10</v>
+        <v>45616.694444444453</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131">
         <v>48</v>
       </c>
-      <c r="B131" t="s">
-        <v>13</v>
+      <c r="B131" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="C131" t="s">
-        <v>44</v>
+        <v>238</v>
       </c>
       <c r="D131">
         <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G131" s="2">
-        <v>45621.61111111111</v>
-      </c>
-      <c r="H131" t="s">
-        <v>69</v>
+        <v>45621.611111111109</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132">
         <v>12</v>
       </c>
-      <c r="B132" t="s">
-        <v>11</v>
+      <c r="B132" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="C132" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="D132">
         <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G132" s="2">
-        <v>45622.71319444444</v>
-      </c>
-      <c r="H132" t="s">
-        <v>10</v>
-      </c>
-      <c r="I132" t="s">
-        <v>69</v>
+        <v>45622.713194444441</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133">
         <v>17</v>
       </c>
-      <c r="B133" t="s">
-        <v>13</v>
+      <c r="B133" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="C133" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="D133">
         <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G133" s="2">
-        <v>45620.68611111111</v>
+        <v>45620.686111111107</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134">
         <v>14</v>
       </c>
-      <c r="B134" t="s">
-        <v>14</v>
+      <c r="B134" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="C134" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
       <c r="F134" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G134" s="2">
-        <v>45622.44375</v>
+        <v>45622.443749999999</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135">
         <v>17</v>
       </c>
-      <c r="B135" t="s">
-        <v>12</v>
+      <c r="B135" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="C135" t="s">
-        <v>48</v>
+        <v>242</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="F135" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G135" s="2">
-        <v>45618.64444444444</v>
-      </c>
-      <c r="H135" t="s">
-        <v>69</v>
-      </c>
-      <c r="I135" t="s">
-        <v>69</v>
+        <v>45618.644444444442</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136">
         <v>26</v>
       </c>
-      <c r="B136" t="s">
-        <v>12</v>
+      <c r="B136" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="C136" t="s">
-        <v>49</v>
+        <v>243</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="F136" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G136" s="2">
-        <v>45624.72222222222</v>
-      </c>
-      <c r="H136" t="s">
-        <v>10</v>
-      </c>
-      <c r="I136" t="s">
-        <v>69</v>
+        <v>45624.722222222219</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137">
         <v>8</v>
       </c>
-      <c r="B137" t="s">
-        <v>13</v>
+      <c r="B137" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="C137" t="s">
-        <v>50</v>
+        <v>244</v>
       </c>
       <c r="D137">
         <v>0</v>
       </c>
       <c r="F137" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G137" s="2">
-        <v>45619.54652777778</v>
-      </c>
-      <c r="I137" t="s">
-        <v>10</v>
+        <v>45619.546527777777</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138">
         <v>6</v>
       </c>
-      <c r="B138" t="s">
-        <v>14</v>
+      <c r="B138" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="C138" t="s">
-        <v>51</v>
+        <v>245</v>
       </c>
       <c r="D138">
         <v>0</v>
       </c>
       <c r="F138" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G138" s="2">
-        <v>45619.52777777778</v>
-      </c>
-      <c r="I138" t="s">
-        <v>10</v>
+        <v>45619.527777777781</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139">
         <v>20</v>
       </c>
-      <c r="B139" t="s">
-        <v>11</v>
+      <c r="B139" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="C139" t="s">
-        <v>52</v>
+        <v>246</v>
       </c>
       <c r="D139">
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G139" s="2">
         <v>45619.70208333333</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140">
         <v>16</v>
       </c>
-      <c r="B140" t="s">
-        <v>11</v>
+      <c r="B140" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="C140" t="s">
-        <v>53</v>
+        <v>247</v>
       </c>
       <c r="D140">
         <v>1</v>
       </c>
       <c r="F140" t="s">
+        <v>261</v>
+      </c>
+      <c r="G140" s="2">
+        <v>45620.511111111111</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I140" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="G140" s="2">
-        <v>45620.51111111111</v>
-      </c>
-      <c r="I140" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141">
         <v>41</v>
       </c>
-      <c r="B141" t="s">
-        <v>11</v>
+      <c r="B141" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="C141" t="s">
-        <v>54</v>
+        <v>248</v>
       </c>
       <c r="D141">
         <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G141" s="2">
-        <v>45623.82638888889</v>
-      </c>
-      <c r="I141" t="s">
-        <v>69</v>
+        <v>45623.826388888891</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142">
         <v>8</v>
       </c>
-      <c r="B142" t="s">
-        <v>14</v>
+      <c r="B142" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="C142" t="s">
-        <v>55</v>
+        <v>249</v>
       </c>
       <c r="D142">
         <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G142" s="2">
-        <v>45619.65763888889</v>
-      </c>
-      <c r="H142" t="s">
-        <v>69</v>
+        <v>45619.657638888893</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143">
         <v>5</v>
       </c>
-      <c r="B143" t="s">
-        <v>9</v>
+      <c r="B143" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="C143" t="s">
-        <v>56</v>
+        <v>250</v>
       </c>
       <c r="D143">
         <v>0</v>
       </c>
       <c r="F143" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G143" s="2">
-        <v>45621.6125</v>
-      </c>
-      <c r="H143" t="s">
-        <v>69</v>
-      </c>
-      <c r="I143" t="s">
-        <v>10</v>
+        <v>45621.612500000003</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144">
         <v>43</v>
       </c>
-      <c r="B144" t="s">
-        <v>14</v>
+      <c r="B144" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="C144" t="s">
-        <v>57</v>
+        <v>251</v>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="F144" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G144" s="2">
-        <v>45623.45833333334</v>
-      </c>
-      <c r="H144" t="s">
-        <v>69</v>
-      </c>
-      <c r="I144" t="s">
-        <v>10</v>
+        <v>45623.458333333343</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145">
         <v>46</v>
       </c>
-      <c r="B145" t="s">
-        <v>12</v>
+      <c r="B145" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="C145" t="s">
-        <v>58</v>
+        <v>252</v>
       </c>
       <c r="D145">
         <v>1</v>
       </c>
       <c r="F145" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G145" s="2">
-        <v>45617.85694444444</v>
-      </c>
-      <c r="H145" t="s">
-        <v>69</v>
-      </c>
-      <c r="I145" t="s">
-        <v>69</v>
+        <v>45617.856944444437</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146">
         <v>5</v>
       </c>
-      <c r="B146" t="s">
-        <v>9</v>
+      <c r="B146" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="C146" t="s">
-        <v>59</v>
+        <v>253</v>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
       <c r="F146" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G146" s="2">
-        <v>45618.61805555555</v>
-      </c>
-      <c r="H146" t="s">
-        <v>69</v>
-      </c>
-      <c r="I146" t="s">
-        <v>69</v>
+        <v>45618.618055555547</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147">
         <v>24</v>
       </c>
-      <c r="B147" t="s">
-        <v>10</v>
+      <c r="B147" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="C147" t="s">
-        <v>60</v>
+        <v>254</v>
       </c>
       <c r="D147">
         <v>1</v>
       </c>
       <c r="F147" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G147" s="2">
         <v>45625.85833333333</v>
       </c>
-      <c r="H147" t="s">
-        <v>10</v>
+      <c r="H147" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148">
         <v>37</v>
       </c>
-      <c r="B148" t="s">
-        <v>9</v>
+      <c r="B148" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="C148" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="D148">
         <v>1</v>
       </c>
       <c r="F148" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G148" s="2">
-        <v>45625.6</v>
-      </c>
-      <c r="I148" t="s">
-        <v>69</v>
+        <v>45625.599999999999</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I148" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149">
         <v>4</v>
       </c>
-      <c r="B149" t="s">
-        <v>11</v>
+      <c r="B149" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="C149" t="s">
-        <v>62</v>
+        <v>256</v>
       </c>
       <c r="D149">
         <v>0</v>
       </c>
       <c r="F149" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G149" s="2">
-        <v>45623.52291666667</v>
-      </c>
-      <c r="I149" t="s">
+        <v>45623.522916666669</v>
+      </c>
+      <c r="H149" s="4" t="s">
         <v>69</v>
+      </c>
+      <c r="I149" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150">
         <v>18</v>
       </c>
-      <c r="B150" t="s">
-        <v>14</v>
+      <c r="B150" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="C150" t="s">
-        <v>63</v>
+        <v>257</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="F150" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G150" s="2">
-        <v>45617.41944444444</v>
-      </c>
-      <c r="I150" t="s">
-        <v>10</v>
+        <v>45617.419444444437</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151">
         <v>35</v>
       </c>
-      <c r="B151" t="s">
-        <v>10</v>
+      <c r="B151" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="C151" t="s">
-        <v>64</v>
+        <v>258</v>
       </c>
       <c r="D151">
         <v>0</v>
       </c>
       <c r="F151" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G151" s="2">
-        <v>45626.50625</v>
-      </c>
-      <c r="I151" t="s">
-        <v>10</v>
+        <v>45626.506249999999</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I151" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152">
         <v>49</v>
       </c>
-      <c r="B152" t="s">
-        <v>10</v>
+      <c r="B152" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="C152" t="s">
-        <v>15</v>
+        <v>209</v>
       </c>
       <c r="D152">
         <v>0</v>
       </c>
       <c r="F152" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G152" s="2">
-        <v>45621.63333333333</v>
-      </c>
-      <c r="I152" t="s">
-        <v>10</v>
+        <v>45621.633333333331</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I152" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153">
         <v>46</v>
       </c>
-      <c r="B153" t="s">
-        <v>9</v>
+      <c r="B153" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="C153" t="s">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="D153">
         <v>0</v>
       </c>
       <c r="F153" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G153" s="2">
-        <v>45620.83958333333</v>
+        <v>45620.839583333327</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I153" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154">
         <v>41</v>
       </c>
-      <c r="B154" t="s">
-        <v>12</v>
+      <c r="B154" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="C154" t="s">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="D154">
         <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G154" s="2">
-        <v>45624.41875</v>
-      </c>
-      <c r="I154" t="s">
-        <v>10</v>
+        <v>45624.418749999997</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I154" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155">
         <v>25</v>
       </c>
-      <c r="B155" t="s">
-        <v>10</v>
+      <c r="B155" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="C155" t="s">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="D155">
         <v>0</v>
       </c>
       <c r="F155" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G155" s="2">
-        <v>45625.56736111111</v>
+        <v>45625.567361111112</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I155" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156">
         <v>28</v>
       </c>
-      <c r="B156" t="s">
-        <v>14</v>
+      <c r="B156" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C156" t="s">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="D156">
         <v>1</v>
       </c>
       <c r="F156" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G156" s="2">
-        <v>45624.47986111111</v>
-      </c>
-      <c r="H156" t="s">
-        <v>10</v>
+        <v>45624.479861111111</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I156" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157">
         <v>36</v>
       </c>
-      <c r="B157" t="s">
-        <v>10</v>
+      <c r="B157" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C157" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="D157">
         <v>0</v>
       </c>
       <c r="F157" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G157" s="2">
         <v>45616.60833333333</v>
       </c>
-      <c r="H157" t="s">
-        <v>69</v>
-      </c>
-      <c r="I157" t="s">
-        <v>69</v>
+      <c r="H157" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I157" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158">
         <v>33</v>
       </c>
-      <c r="B158" t="s">
-        <v>13</v>
+      <c r="B158" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="C158" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="D158">
         <v>0</v>
       </c>
       <c r="F158" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G158" s="2">
-        <v>45626.63541666666</v>
-      </c>
-      <c r="H158" t="s">
-        <v>10</v>
-      </c>
-      <c r="I158" t="s">
-        <v>69</v>
+        <v>45626.635416666657</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I158" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159">
         <v>47</v>
       </c>
-      <c r="B159" t="s">
-        <v>13</v>
+      <c r="B159" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C159" t="s">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="D159">
         <v>1</v>
       </c>
       <c r="F159" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G159" s="2">
-        <v>45623.50902777778</v>
-      </c>
-      <c r="H159" t="s">
-        <v>69</v>
-      </c>
-      <c r="I159" t="s">
-        <v>10</v>
+        <v>45623.509027777778</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I159" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160">
         <v>49</v>
       </c>
-      <c r="B160" t="s">
-        <v>9</v>
+      <c r="B160" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C160" t="s">
-        <v>23</v>
+        <v>217</v>
       </c>
       <c r="D160">
         <v>0</v>
       </c>
       <c r="F160" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G160" s="2">
-        <v>45622.53055555555</v>
-      </c>
-      <c r="I160" t="s">
-        <v>10</v>
+        <v>45622.530555555553</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I160" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161">
         <v>44</v>
       </c>
-      <c r="B161" t="s">
-        <v>12</v>
+      <c r="B161" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="C161" t="s">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="D161">
         <v>0</v>
       </c>
       <c r="F161" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G161" s="2">
         <v>45623.6</v>
       </c>
-      <c r="H161" t="s">
-        <v>69</v>
-      </c>
-      <c r="I161" t="s">
-        <v>10</v>
+      <c r="H161" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I161" s="4" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162">
         <v>19</v>
       </c>
-      <c r="B162" t="s">
-        <v>11</v>
+      <c r="B162" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="C162" t="s">
-        <v>25</v>
+        <v>219</v>
       </c>
       <c r="D162">
         <v>0</v>
       </c>
       <c r="F162" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G162" s="2">
-        <v>45616.80625</v>
-      </c>
-      <c r="I162" t="s">
-        <v>69</v>
+        <v>45616.806250000001</v>
+      </c>
+      <c r="H162" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I162" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163">
         <v>18</v>
       </c>
-      <c r="B163" t="s">
-        <v>13</v>
+      <c r="B163" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="C163" t="s">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="D163">
         <v>1</v>
       </c>
       <c r="F163" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G163" s="2">
-        <v>45618.46527777778</v>
-      </c>
-      <c r="H163" t="s">
-        <v>10</v>
+        <v>45618.465277777781</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I163" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164">
         <v>37</v>
       </c>
-      <c r="B164" t="s">
-        <v>11</v>
+      <c r="B164" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="D164">
         <v>1</v>
       </c>
       <c r="F164" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G164" s="2">
         <v>45619.82708333333</v>
       </c>
-      <c r="H164" t="s">
-        <v>10</v>
+      <c r="H164" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I164" s="4" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165">
         <v>32</v>
       </c>
-      <c r="B165" t="s">
-        <v>13</v>
+      <c r="B165" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="C165" t="s">
-        <v>28</v>
+        <v>222</v>
       </c>
       <c r="D165">
         <v>0</v>
       </c>
       <c r="F165" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G165" s="2">
-        <v>45619.61180555556</v>
-      </c>
-      <c r="H165" t="s">
-        <v>69</v>
-      </c>
-      <c r="I165" t="s">
-        <v>69</v>
+        <v>45619.611805555563</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I165" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166">
         <v>48</v>
       </c>
-      <c r="B166" t="s">
-        <v>11</v>
+      <c r="B166" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="C166" t="s">
-        <v>29</v>
+        <v>223</v>
       </c>
       <c r="D166">
         <v>0</v>
       </c>
       <c r="F166" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G166" s="2">
-        <v>45623.75555555556</v>
-      </c>
-      <c r="I166" t="s">
-        <v>69</v>
+        <v>45623.755555555559</v>
+      </c>
+      <c r="H166" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I166" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167">
         <v>17</v>
       </c>
-      <c r="B167" t="s">
-        <v>14</v>
+      <c r="B167" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="C167" t="s">
-        <v>30</v>
+        <v>224</v>
       </c>
       <c r="D167">
         <v>0</v>
       </c>
       <c r="F167" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G167" s="2">
-        <v>45624.71319444444</v>
-      </c>
-      <c r="H167" t="s">
-        <v>69</v>
+        <v>45624.713194444441</v>
+      </c>
+      <c r="H167" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I167" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168">
         <v>13</v>
       </c>
-      <c r="B168" t="s">
-        <v>14</v>
+      <c r="B168" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="C168" t="s">
-        <v>31</v>
+        <v>225</v>
       </c>
       <c r="D168">
         <v>1</v>
       </c>
       <c r="F168" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G168" s="2">
-        <v>45621.43958333333</v>
-      </c>
-      <c r="H168" t="s">
-        <v>69</v>
-      </c>
-      <c r="I168" t="s">
-        <v>10</v>
+        <v>45621.439583333333</v>
+      </c>
+      <c r="H168" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I168" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169">
         <v>35</v>
       </c>
-      <c r="B169" t="s">
-        <v>12</v>
+      <c r="B169" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="C169" t="s">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="D169">
         <v>1</v>
       </c>
       <c r="F169" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G169" s="2">
         <v>45617.54583333333</v>
       </c>
-      <c r="H169" t="s">
-        <v>69</v>
-      </c>
-      <c r="I169" t="s">
-        <v>10</v>
+      <c r="H169" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I169" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170">
         <v>3</v>
       </c>
-      <c r="B170" t="s">
-        <v>10</v>
+      <c r="B170" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="C170" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="D170">
         <v>1</v>
       </c>
       <c r="F170" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G170" s="2">
-        <v>45626.43958333333</v>
-      </c>
-      <c r="H170" t="s">
-        <v>69</v>
+        <v>45626.439583333333</v>
+      </c>
+      <c r="H170" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I170" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171">
         <v>29</v>
       </c>
-      <c r="B171" t="s">
-        <v>13</v>
+      <c r="B171" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="C171" t="s">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="D171">
         <v>0</v>
       </c>
       <c r="F171" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G171" s="2">
-        <v>45617.64861111111</v>
-      </c>
-      <c r="H171" t="s">
-        <v>69</v>
+        <v>45617.648611111108</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I171" s="4" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172">
         <v>5</v>
       </c>
-      <c r="B172" t="s">
-        <v>14</v>
+      <c r="B172" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="C172" t="s">
-        <v>35</v>
+        <v>229</v>
       </c>
       <c r="D172">
         <v>0</v>
       </c>
       <c r="F172" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G172" s="2">
         <v>45618.75</v>
       </c>
-      <c r="H172" t="s">
-        <v>69</v>
-      </c>
-      <c r="I172" t="s">
-        <v>10</v>
+      <c r="H172" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I172" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173">
         <v>14</v>
       </c>
-      <c r="B173" t="s">
-        <v>12</v>
+      <c r="B173" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="C173" t="s">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="D173">
         <v>0</v>
       </c>
       <c r="F173" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G173" s="2">
-        <v>45619.74375</v>
-      </c>
-      <c r="H173" t="s">
-        <v>69</v>
-      </c>
-      <c r="I173" t="s">
-        <v>69</v>
+        <v>45619.743750000001</v>
+      </c>
+      <c r="H173" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I173" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174">
         <v>3</v>
       </c>
-      <c r="B174" t="s">
-        <v>11</v>
+      <c r="B174" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="C174" t="s">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="D174">
         <v>0</v>
       </c>
       <c r="F174" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G174" s="2">
-        <v>45622.74861111111</v>
-      </c>
-      <c r="H174" t="s">
-        <v>69</v>
-      </c>
-      <c r="I174" t="s">
-        <v>69</v>
+        <v>45622.748611111107</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I174" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175">
         <v>31</v>
       </c>
-      <c r="B175" t="s">
-        <v>14</v>
+      <c r="B175" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="C175" t="s">
-        <v>38</v>
+        <v>232</v>
       </c>
       <c r="D175">
         <v>0</v>
       </c>
       <c r="F175" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G175" s="2">
-        <v>45621.80555555555</v>
-      </c>
-      <c r="I175" t="s">
-        <v>69</v>
+        <v>45621.805555555547</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I175" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176">
         <v>14</v>
       </c>
-      <c r="B176" t="s">
-        <v>9</v>
+      <c r="B176" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="C176" t="s">
-        <v>39</v>
+        <v>233</v>
       </c>
       <c r="D176">
         <v>0</v>
       </c>
       <c r="F176" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G176" s="2">
-        <v>45616.85486111111</v>
-      </c>
-      <c r="H176" t="s">
-        <v>10</v>
+        <v>45616.854861111111</v>
+      </c>
+      <c r="H176" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I176" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177">
         <v>10</v>
       </c>
-      <c r="B177" t="s">
-        <v>9</v>
+      <c r="B177" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="C177" t="s">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="D177">
         <v>0</v>
       </c>
       <c r="F177" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G177" s="2">
         <v>45624.86041666667</v>
       </c>
-      <c r="H177" t="s">
-        <v>69</v>
-      </c>
-      <c r="I177" t="s">
-        <v>10</v>
+      <c r="H177" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I177" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178">
         <v>36</v>
       </c>
-      <c r="B178" t="s">
-        <v>14</v>
+      <c r="B178" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="C178" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="D178">
         <v>0</v>
       </c>
       <c r="F178" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G178" s="2">
-        <v>45618.54513888889</v>
-      </c>
-      <c r="H178" t="s">
-        <v>69</v>
+        <v>45618.545138888891</v>
+      </c>
+      <c r="H178" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I178" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179">
         <v>17</v>
       </c>
-      <c r="B179" t="s">
-        <v>10</v>
+      <c r="B179" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="C179" t="s">
-        <v>42</v>
+        <v>236</v>
       </c>
       <c r="D179">
         <v>1</v>
       </c>
       <c r="F179" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G179" s="2">
-        <v>45621.76805555556</v>
-      </c>
-      <c r="I179" t="s">
-        <v>69</v>
+        <v>45621.768055555563</v>
+      </c>
+      <c r="H179" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I179" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="180" spans="1:9">
       <c r="A180">
         <v>32</v>
       </c>
-      <c r="B180" t="s">
-        <v>13</v>
+      <c r="B180" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="C180" t="s">
-        <v>43</v>
+        <v>237</v>
       </c>
       <c r="D180">
         <v>0</v>
       </c>
       <c r="F180" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G180" s="2">
         <v>45618.53125</v>
       </c>
-      <c r="H180" t="s">
-        <v>10</v>
-      </c>
-      <c r="I180" t="s">
-        <v>69</v>
+      <c r="H180" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I180" s="4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181">
         <v>3</v>
       </c>
-      <c r="B181" t="s">
-        <v>9</v>
+      <c r="B181" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="C181" t="s">
-        <v>44</v>
+        <v>238</v>
       </c>
       <c r="D181">
         <v>0</v>
       </c>
       <c r="F181" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G181" s="2">
-        <v>45616.73472222222</v>
-      </c>
-      <c r="H181" t="s">
-        <v>10</v>
-      </c>
-      <c r="I181" t="s">
-        <v>10</v>
+        <v>45616.734722222223</v>
+      </c>
+      <c r="H181" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I181" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182">
         <v>5</v>
       </c>
-      <c r="B182" t="s">
-        <v>11</v>
+      <c r="B182" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="C182" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="D182">
         <v>0</v>
       </c>
       <c r="F182" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G182" s="2">
-        <v>45625.43194444444</v>
-      </c>
-      <c r="H182" t="s">
-        <v>10</v>
-      </c>
-      <c r="I182" t="s">
-        <v>10</v>
+        <v>45625.431944444441</v>
+      </c>
+      <c r="H182" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I182" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183">
         <v>13</v>
       </c>
-      <c r="B183" t="s">
-        <v>10</v>
+      <c r="B183" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="C183" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="D183">
         <v>1</v>
       </c>
       <c r="F183" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G183" s="2">
-        <v>45617.45277777778</v>
-      </c>
-      <c r="H183" t="s">
-        <v>69</v>
-      </c>
-      <c r="I183" t="s">
-        <v>10</v>
+        <v>45617.452777777777</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I183" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184">
         <v>20</v>
       </c>
-      <c r="B184" t="s">
-        <v>14</v>
+      <c r="B184" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="C184" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="D184">
         <v>0</v>
       </c>
       <c r="F184" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G184" s="2">
-        <v>45617.84930555556</v>
+        <v>45617.849305555559</v>
+      </c>
+      <c r="H184" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I184" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185">
         <v>11</v>
       </c>
-      <c r="B185" t="s">
-        <v>11</v>
+      <c r="B185" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="C185" t="s">
-        <v>48</v>
+        <v>242</v>
       </c>
       <c r="D185">
         <v>1</v>
       </c>
       <c r="F185" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G185" s="2">
         <v>45620.71597222222</v>
       </c>
-      <c r="H185" t="s">
-        <v>69</v>
-      </c>
-      <c r="I185" t="s">
-        <v>10</v>
+      <c r="H185" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="I185" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186">
         <v>30</v>
       </c>
-      <c r="B186" t="s">
-        <v>11</v>
+      <c r="B186" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C186" t="s">
-        <v>49</v>
+        <v>243</v>
       </c>
       <c r="D186">
         <v>1</v>
       </c>
       <c r="F186" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G186" s="2">
         <v>45622.68472222222</v>
       </c>
-      <c r="I186" t="s">
-        <v>10</v>
+      <c r="H186" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I186" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187">
         <v>19</v>
       </c>
-      <c r="B187" t="s">
-        <v>11</v>
+      <c r="B187" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="C187" t="s">
-        <v>50</v>
+        <v>244</v>
       </c>
       <c r="D187">
         <v>0</v>
       </c>
       <c r="F187" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G187" s="2">
-        <v>45619.85625</v>
-      </c>
-      <c r="H187" t="s">
-        <v>10</v>
-      </c>
-      <c r="I187" t="s">
-        <v>10</v>
+        <v>45619.856249999997</v>
+      </c>
+      <c r="H187" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I187" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188">
         <v>22</v>
       </c>
-      <c r="B188" t="s">
-        <v>14</v>
+      <c r="B188" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="C188" t="s">
-        <v>51</v>
+        <v>245</v>
       </c>
       <c r="D188">
         <v>1</v>
       </c>
       <c r="F188" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G188" s="2">
-        <v>45620.70625</v>
-      </c>
-      <c r="H188" t="s">
-        <v>10</v>
-      </c>
-      <c r="I188" t="s">
-        <v>69</v>
+        <v>45620.706250000003</v>
+      </c>
+      <c r="H188" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="I188" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189">
         <v>38</v>
       </c>
-      <c r="B189" t="s">
-        <v>9</v>
+      <c r="B189" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="C189" t="s">
-        <v>52</v>
+        <v>246</v>
       </c>
       <c r="D189">
         <v>1</v>
       </c>
       <c r="F189" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G189" s="2">
-        <v>45619.79027777778</v>
-      </c>
-      <c r="H189" t="s">
-        <v>10</v>
-      </c>
-      <c r="I189" t="s">
-        <v>69</v>
+        <v>45619.790277777778</v>
+      </c>
+      <c r="H189" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I189" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190">
         <v>38</v>
       </c>
-      <c r="B190" t="s">
-        <v>12</v>
+      <c r="B190" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="C190" t="s">
-        <v>53</v>
+        <v>247</v>
       </c>
       <c r="D190">
         <v>1</v>
       </c>
       <c r="F190" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G190" s="2">
-        <v>45623.69652777778</v>
-      </c>
-      <c r="H190" t="s">
-        <v>10</v>
-      </c>
-      <c r="I190" t="s">
-        <v>10</v>
+        <v>45623.696527777778</v>
+      </c>
+      <c r="H190" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I190" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191">
         <v>4</v>
       </c>
-      <c r="B191" t="s">
-        <v>13</v>
+      <c r="B191" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="C191" t="s">
-        <v>54</v>
+        <v>248</v>
       </c>
       <c r="D191">
         <v>0</v>
       </c>
       <c r="F191" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G191" s="2">
-        <v>45617.82083333333</v>
-      </c>
-      <c r="H191" t="s">
-        <v>10</v>
+        <v>45617.820833333331</v>
+      </c>
+      <c r="H191" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I191" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192">
         <v>39</v>
       </c>
-      <c r="B192" t="s">
-        <v>10</v>
+      <c r="B192" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="C192" t="s">
-        <v>55</v>
+        <v>249</v>
       </c>
       <c r="D192">
         <v>1</v>
       </c>
       <c r="F192" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G192" s="2">
-        <v>45620.71111111111</v>
-      </c>
-      <c r="I192" t="s">
-        <v>69</v>
+        <v>45620.711111111108</v>
+      </c>
+      <c r="H192" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I192" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193">
         <v>43</v>
       </c>
-      <c r="B193" t="s">
-        <v>14</v>
+      <c r="B193" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="C193" t="s">
-        <v>56</v>
+        <v>250</v>
       </c>
       <c r="D193">
         <v>0</v>
       </c>
       <c r="F193" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="G193" s="2">
-        <v>45622.80902777778</v>
-      </c>
-      <c r="I193" t="s">
-        <v>10</v>
+        <v>45622.809027777781</v>
+      </c>
+      <c r="H193" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I193" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194">
         <v>31</v>
       </c>
-      <c r="B194" t="s">
-        <v>11</v>
+      <c r="B194" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="C194" t="s">
-        <v>57</v>
+        <v>251</v>
       </c>
       <c r="D194">
         <v>1</v>
       </c>
       <c r="F194" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G194" s="2">
-        <v>45618.60208333333</v>
-      </c>
-      <c r="I194" t="s">
-        <v>69</v>
+        <v>45618.602083333331</v>
+      </c>
+      <c r="H194" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="I194" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195">
         <v>39</v>
       </c>
-      <c r="B195" t="s">
-        <v>10</v>
+      <c r="B195" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="C195" t="s">
-        <v>58</v>
+        <v>252</v>
       </c>
       <c r="D195">
         <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G195" s="2">
-        <v>45625.76527777778</v>
-      </c>
-      <c r="H195" t="s">
-        <v>69</v>
-      </c>
-      <c r="I195" t="s">
-        <v>69</v>
+        <v>45625.765277777777</v>
+      </c>
+      <c r="H195" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I195" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196">
         <v>2</v>
       </c>
-      <c r="B196" t="s">
-        <v>14</v>
+      <c r="B196" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="C196" t="s">
-        <v>59</v>
+        <v>253</v>
       </c>
       <c r="D196">
         <v>0</v>
       </c>
       <c r="F196" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="G196" s="2">
-        <v>45619.79375</v>
-      </c>
-      <c r="I196" t="s">
-        <v>69</v>
+        <v>45619.793749999997</v>
+      </c>
+      <c r="H196" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I196" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197">
         <v>31</v>
       </c>
-      <c r="B197" t="s">
-        <v>13</v>
+      <c r="B197" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="C197" t="s">
+        <v>254</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="F197" t="s">
+        <v>260</v>
+      </c>
+      <c r="G197" s="2">
+        <v>45624.553472222222</v>
+      </c>
+      <c r="H197" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D197">
-        <v>1</v>
-      </c>
-      <c r="F197" t="s">
-        <v>66</v>
-      </c>
-      <c r="G197" s="2">
-        <v>45624.55347222222</v>
-      </c>
-      <c r="I197" t="s">
-        <v>10</v>
+      <c r="I197" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198">
         <v>7</v>
       </c>
-      <c r="B198" t="s">
-        <v>12</v>
+      <c r="B198" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="C198" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="D198">
         <v>1</v>
       </c>
       <c r="F198" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="G198" s="2">
-        <v>45623.50416666667</v>
-      </c>
-      <c r="H198" t="s">
-        <v>10</v>
-      </c>
-      <c r="I198" t="s">
-        <v>69</v>
+        <v>45623.504166666673</v>
+      </c>
+      <c r="H198" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I198" s="4" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199">
         <v>16</v>
       </c>
-      <c r="B199" t="s">
-        <v>13</v>
+      <c r="B199" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="C199" t="s">
-        <v>62</v>
+        <v>256</v>
       </c>
       <c r="D199">
         <v>0</v>
       </c>
       <c r="F199" t="s">
+        <v>259</v>
+      </c>
+      <c r="G199" s="2">
+        <v>45626.770833333343</v>
+      </c>
+      <c r="H199" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G199" s="2">
-        <v>45626.77083333334</v>
-      </c>
-      <c r="H199" t="s">
-        <v>10</v>
-      </c>
-      <c r="I199" t="s">
-        <v>10</v>
+      <c r="I199" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200">
         <v>7</v>
       </c>
-      <c r="B200" t="s">
-        <v>13</v>
+      <c r="B200" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="C200" t="s">
-        <v>63</v>
+        <v>257</v>
       </c>
       <c r="D200">
         <v>1</v>
       </c>
       <c r="F200" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G200" s="2">
         <v>45624.45</v>
       </c>
-      <c r="H200" t="s">
-        <v>69</v>
-      </c>
-      <c r="I200" t="s">
-        <v>69</v>
+      <c r="H200" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I200" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201">
         <v>21</v>
       </c>
-      <c r="B201" t="s">
-        <v>14</v>
+      <c r="B201" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="C201" t="s">
-        <v>64</v>
+        <v>258</v>
       </c>
       <c r="D201">
         <v>0</v>
       </c>
       <c r="F201" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="G201" s="2">
-        <v>45623.45833333334</v>
-      </c>
-      <c r="I201" t="s">
-        <v>10</v>
+        <v>45623.458333333343</v>
+      </c>
+      <c r="H201" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I201" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>